--- a/biology/Zoologie/Culex_modestus/Culex_modestus.xlsx
+++ b/biology/Zoologie/Culex_modestus/Culex_modestus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Culex modestus est une espèce d'insectes diptères de la famille des Culicidae. Ce moustique est vecteur de la fièvre du Nil occidental[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Culex modestus est une espèce d'insectes diptères de la famille des Culicidae. Ce moustique est vecteur de la fièvre du Nil occidental.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vit en Algérie, en Chine, Espagne, en Grèce, en Hongrie, en Iran, en Irak, en Israël, en Italie, en Mongolie, au Maroc, en Pologne, en République tchèque, en Roumanie, au Royaume-Uni, en Russie, en Slovaquie, au Tadjikistan et en Turquie. Il vit essentiellement dans les estuaires ainsi qu'en zone humide[1] et ses larves se développent dans les roselières et les rizières[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit en Algérie, en Chine, Espagne, en Grèce, en Hongrie, en Iran, en Irak, en Israël, en Italie, en Mongolie, au Maroc, en Pologne, en République tchèque, en Roumanie, au Royaume-Uni, en Russie, en Slovaquie, au Tadjikistan et en Turquie. Il vit essentiellement dans les estuaires ainsi qu'en zone humide et ses larves se développent dans les roselières et les rizières.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce taxon a été décrit en 1889 par l'entomologiste italien Eugenio Ficalbi, et admet les synonymes suivants :
 Culex eadithae Barraud, 1924
